--- a/po_analysis_by_asin/B0CN76TH9S_po_data.xlsx
+++ b/po_analysis_by_asin/B0CN76TH9S_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,153 +452,185 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>735</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45306</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>330</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45320</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>600</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45390</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>620</v>
+        <v>735</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45404</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45411</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45418</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>390</v>
+        <v>600</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45425</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>270</v>
+        <v>620</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45432</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>490</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45439</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>490</v>
+        <v>340</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45446</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>450</v>
+        <v>390</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45453</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>1120</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45460</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>590</v>
+        <v>490</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45474</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>730</v>
+        <v>490</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45481</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>260</v>
+        <v>450</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45509</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>310</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45516</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>230</v>
+        <v>590</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45530</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B20" t="n">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B24" t="n">
         <v>310</v>
       </c>
     </row>
@@ -613,7 +645,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,49 +667,65 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>1680</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45383</v>
+        <v>45291.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>650</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45413</v>
+        <v>45322.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>1980</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45444</v>
+        <v>45412.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>2160</v>
+        <v>650</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45474</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>990</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45505</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B7" t="n">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B9" t="n">
         <v>850</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0CN76TH9S_po_data.xlsx
+++ b/po_analysis_by_asin/B0CN76TH9S_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -661,7 +662,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -727,6 +728,481 @@
       </c>
       <c r="B9" t="n">
         <v>850</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>215</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-127.2819616240443</v>
+      </c>
+      <c r="D2" t="n">
+        <v>540.0302752828569</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>222</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-112.0177652381434</v>
+      </c>
+      <c r="D3" t="n">
+        <v>566.7113705355395</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>230</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-75.09374613983702</v>
+      </c>
+      <c r="D4" t="n">
+        <v>550.7573646980525</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>238</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-93.77374149752971</v>
+      </c>
+      <c r="D5" t="n">
+        <v>561.1118324572782</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>261</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-76.11816055194485</v>
+      </c>
+      <c r="D6" t="n">
+        <v>594.9531921569156</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>268</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-31.48768033369026</v>
+      </c>
+      <c r="D7" t="n">
+        <v>576.6744575358828</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>276</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-66.01809145487717</v>
+      </c>
+      <c r="D8" t="n">
+        <v>595.0599369930266</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>291</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-31.76160686019109</v>
+      </c>
+      <c r="D9" t="n">
+        <v>632.4098518110344</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>367</v>
+      </c>
+      <c r="C10" t="n">
+        <v>39.36056411525289</v>
+      </c>
+      <c r="D10" t="n">
+        <v>706.8862167029373</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>383</v>
+      </c>
+      <c r="C11" t="n">
+        <v>64.84621879486514</v>
+      </c>
+      <c r="D11" t="n">
+        <v>705.9522490927834</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>390</v>
+      </c>
+      <c r="C12" t="n">
+        <v>59.25552596252086</v>
+      </c>
+      <c r="D12" t="n">
+        <v>697.6275490908578</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>398</v>
+      </c>
+      <c r="C13" t="n">
+        <v>45.66900240934702</v>
+      </c>
+      <c r="D13" t="n">
+        <v>716.5418546319248</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>405</v>
+      </c>
+      <c r="C14" t="n">
+        <v>70.34272704212167</v>
+      </c>
+      <c r="D14" t="n">
+        <v>734.6804977435692</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>413</v>
+      </c>
+      <c r="C15" t="n">
+        <v>83.58588551594433</v>
+      </c>
+      <c r="D15" t="n">
+        <v>755.2083048776033</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>421</v>
+      </c>
+      <c r="C16" t="n">
+        <v>64.86048560201893</v>
+      </c>
+      <c r="D16" t="n">
+        <v>750.6031937591596</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>428</v>
+      </c>
+      <c r="C17" t="n">
+        <v>110.3274791492746</v>
+      </c>
+      <c r="D17" t="n">
+        <v>751.6895232598628</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>436</v>
+      </c>
+      <c r="C18" t="n">
+        <v>93.8722924717601</v>
+      </c>
+      <c r="D18" t="n">
+        <v>750.2607463193566</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>444</v>
+      </c>
+      <c r="C19" t="n">
+        <v>95.19092865434224</v>
+      </c>
+      <c r="D19" t="n">
+        <v>763.0798670089423</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>459</v>
+      </c>
+      <c r="C20" t="n">
+        <v>142.5549600108583</v>
+      </c>
+      <c r="D20" t="n">
+        <v>803.7473958788117</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>466</v>
+      </c>
+      <c r="C21" t="n">
+        <v>149.3898380470835</v>
+      </c>
+      <c r="D21" t="n">
+        <v>803.9304711093868</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>497</v>
+      </c>
+      <c r="C22" t="n">
+        <v>176.0140198746305</v>
+      </c>
+      <c r="D22" t="n">
+        <v>828.9865970976492</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>505</v>
+      </c>
+      <c r="C23" t="n">
+        <v>210.8191746835069</v>
+      </c>
+      <c r="D23" t="n">
+        <v>826.2862035952419</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>520</v>
+      </c>
+      <c r="C24" t="n">
+        <v>208.6225336380417</v>
+      </c>
+      <c r="D24" t="n">
+        <v>838.1100381326746</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>527</v>
+      </c>
+      <c r="C25" t="n">
+        <v>228.526751580412</v>
+      </c>
+      <c r="D25" t="n">
+        <v>879.3620737638367</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>535</v>
+      </c>
+      <c r="C26" t="n">
+        <v>220.7387808438695</v>
+      </c>
+      <c r="D26" t="n">
+        <v>852.6832003779086</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>543</v>
+      </c>
+      <c r="C27" t="n">
+        <v>214.1907005984134</v>
+      </c>
+      <c r="D27" t="n">
+        <v>864.8464439357299</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>550</v>
+      </c>
+      <c r="C28" t="n">
+        <v>252.2000600420939</v>
+      </c>
+      <c r="D28" t="n">
+        <v>870.7951470130828</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>558</v>
+      </c>
+      <c r="C29" t="n">
+        <v>213.084745060066</v>
+      </c>
+      <c r="D29" t="n">
+        <v>888.9694937064312</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>566</v>
+      </c>
+      <c r="C30" t="n">
+        <v>259.4297224308351</v>
+      </c>
+      <c r="D30" t="n">
+        <v>899.5986644404902</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>573</v>
+      </c>
+      <c r="C31" t="n">
+        <v>243.4601812033004</v>
+      </c>
+      <c r="D31" t="n">
+        <v>904.9318520572649</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>581</v>
+      </c>
+      <c r="C32" t="n">
+        <v>270.3447125118425</v>
+      </c>
+      <c r="D32" t="n">
+        <v>900.8729465473905</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CN76TH9S_po_data.xlsx
+++ b/po_analysis_by_asin/B0CN76TH9S_po_data.xlsx
@@ -741,7 +741,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -760,16 +760,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -778,12 +768,6 @@
       <c r="B2" t="n">
         <v>215</v>
       </c>
-      <c r="C2" t="n">
-        <v>-127.2819616240443</v>
-      </c>
-      <c r="D2" t="n">
-        <v>540.0302752828569</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -792,12 +776,6 @@
       <c r="B3" t="n">
         <v>222</v>
       </c>
-      <c r="C3" t="n">
-        <v>-112.0177652381434</v>
-      </c>
-      <c r="D3" t="n">
-        <v>566.7113705355395</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -806,12 +784,6 @@
       <c r="B4" t="n">
         <v>230</v>
       </c>
-      <c r="C4" t="n">
-        <v>-75.09374613983702</v>
-      </c>
-      <c r="D4" t="n">
-        <v>550.7573646980525</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -820,12 +792,6 @@
       <c r="B5" t="n">
         <v>238</v>
       </c>
-      <c r="C5" t="n">
-        <v>-93.77374149752971</v>
-      </c>
-      <c r="D5" t="n">
-        <v>561.1118324572782</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -834,12 +800,6 @@
       <c r="B6" t="n">
         <v>261</v>
       </c>
-      <c r="C6" t="n">
-        <v>-76.11816055194485</v>
-      </c>
-      <c r="D6" t="n">
-        <v>594.9531921569156</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -848,12 +808,6 @@
       <c r="B7" t="n">
         <v>268</v>
       </c>
-      <c r="C7" t="n">
-        <v>-31.48768033369026</v>
-      </c>
-      <c r="D7" t="n">
-        <v>576.6744575358828</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -862,12 +816,6 @@
       <c r="B8" t="n">
         <v>276</v>
       </c>
-      <c r="C8" t="n">
-        <v>-66.01809145487717</v>
-      </c>
-      <c r="D8" t="n">
-        <v>595.0599369930266</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -876,12 +824,6 @@
       <c r="B9" t="n">
         <v>291</v>
       </c>
-      <c r="C9" t="n">
-        <v>-31.76160686019109</v>
-      </c>
-      <c r="D9" t="n">
-        <v>632.4098518110344</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -890,12 +832,6 @@
       <c r="B10" t="n">
         <v>367</v>
       </c>
-      <c r="C10" t="n">
-        <v>39.36056411525289</v>
-      </c>
-      <c r="D10" t="n">
-        <v>706.8862167029373</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -904,12 +840,6 @@
       <c r="B11" t="n">
         <v>383</v>
       </c>
-      <c r="C11" t="n">
-        <v>64.84621879486514</v>
-      </c>
-      <c r="D11" t="n">
-        <v>705.9522490927834</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -918,12 +848,6 @@
       <c r="B12" t="n">
         <v>390</v>
       </c>
-      <c r="C12" t="n">
-        <v>59.25552596252086</v>
-      </c>
-      <c r="D12" t="n">
-        <v>697.6275490908578</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -932,12 +856,6 @@
       <c r="B13" t="n">
         <v>398</v>
       </c>
-      <c r="C13" t="n">
-        <v>45.66900240934702</v>
-      </c>
-      <c r="D13" t="n">
-        <v>716.5418546319248</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -946,12 +864,6 @@
       <c r="B14" t="n">
         <v>405</v>
       </c>
-      <c r="C14" t="n">
-        <v>70.34272704212167</v>
-      </c>
-      <c r="D14" t="n">
-        <v>734.6804977435692</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -960,12 +872,6 @@
       <c r="B15" t="n">
         <v>413</v>
       </c>
-      <c r="C15" t="n">
-        <v>83.58588551594433</v>
-      </c>
-      <c r="D15" t="n">
-        <v>755.2083048776033</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -974,12 +880,6 @@
       <c r="B16" t="n">
         <v>421</v>
       </c>
-      <c r="C16" t="n">
-        <v>64.86048560201893</v>
-      </c>
-      <c r="D16" t="n">
-        <v>750.6031937591596</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -988,12 +888,6 @@
       <c r="B17" t="n">
         <v>428</v>
       </c>
-      <c r="C17" t="n">
-        <v>110.3274791492746</v>
-      </c>
-      <c r="D17" t="n">
-        <v>751.6895232598628</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1002,12 +896,6 @@
       <c r="B18" t="n">
         <v>436</v>
       </c>
-      <c r="C18" t="n">
-        <v>93.8722924717601</v>
-      </c>
-      <c r="D18" t="n">
-        <v>750.2607463193566</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1016,12 +904,6 @@
       <c r="B19" t="n">
         <v>444</v>
       </c>
-      <c r="C19" t="n">
-        <v>95.19092865434224</v>
-      </c>
-      <c r="D19" t="n">
-        <v>763.0798670089423</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1030,12 +912,6 @@
       <c r="B20" t="n">
         <v>459</v>
       </c>
-      <c r="C20" t="n">
-        <v>142.5549600108583</v>
-      </c>
-      <c r="D20" t="n">
-        <v>803.7473958788117</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1044,12 +920,6 @@
       <c r="B21" t="n">
         <v>466</v>
       </c>
-      <c r="C21" t="n">
-        <v>149.3898380470835</v>
-      </c>
-      <c r="D21" t="n">
-        <v>803.9304711093868</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1058,12 +928,6 @@
       <c r="B22" t="n">
         <v>497</v>
       </c>
-      <c r="C22" t="n">
-        <v>176.0140198746305</v>
-      </c>
-      <c r="D22" t="n">
-        <v>828.9865970976492</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1072,12 +936,6 @@
       <c r="B23" t="n">
         <v>505</v>
       </c>
-      <c r="C23" t="n">
-        <v>210.8191746835069</v>
-      </c>
-      <c r="D23" t="n">
-        <v>826.2862035952419</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1086,12 +944,6 @@
       <c r="B24" t="n">
         <v>520</v>
       </c>
-      <c r="C24" t="n">
-        <v>208.6225336380417</v>
-      </c>
-      <c r="D24" t="n">
-        <v>838.1100381326746</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1100,12 +952,6 @@
       <c r="B25" t="n">
         <v>527</v>
       </c>
-      <c r="C25" t="n">
-        <v>228.526751580412</v>
-      </c>
-      <c r="D25" t="n">
-        <v>879.3620737638367</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1114,12 +960,6 @@
       <c r="B26" t="n">
         <v>535</v>
       </c>
-      <c r="C26" t="n">
-        <v>220.7387808438695</v>
-      </c>
-      <c r="D26" t="n">
-        <v>852.6832003779086</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1128,12 +968,6 @@
       <c r="B27" t="n">
         <v>543</v>
       </c>
-      <c r="C27" t="n">
-        <v>214.1907005984134</v>
-      </c>
-      <c r="D27" t="n">
-        <v>864.8464439357299</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1142,12 +976,6 @@
       <c r="B28" t="n">
         <v>550</v>
       </c>
-      <c r="C28" t="n">
-        <v>252.2000600420939</v>
-      </c>
-      <c r="D28" t="n">
-        <v>870.7951470130828</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1156,12 +984,6 @@
       <c r="B29" t="n">
         <v>558</v>
       </c>
-      <c r="C29" t="n">
-        <v>213.084745060066</v>
-      </c>
-      <c r="D29" t="n">
-        <v>888.9694937064312</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1170,12 +992,6 @@
       <c r="B30" t="n">
         <v>566</v>
       </c>
-      <c r="C30" t="n">
-        <v>259.4297224308351</v>
-      </c>
-      <c r="D30" t="n">
-        <v>899.5986644404902</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1184,12 +1000,6 @@
       <c r="B31" t="n">
         <v>573</v>
       </c>
-      <c r="C31" t="n">
-        <v>243.4601812033004</v>
-      </c>
-      <c r="D31" t="n">
-        <v>904.9318520572649</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1197,12 +1007,6 @@
       </c>
       <c r="B32" t="n">
         <v>581</v>
-      </c>
-      <c r="C32" t="n">
-        <v>270.3447125118425</v>
-      </c>
-      <c r="D32" t="n">
-        <v>900.8729465473905</v>
       </c>
     </row>
   </sheetData>
